--- a/Bitacora_Etapa_Productiva_semana DOS.xlsx
+++ b/Bitacora_Etapa_Productiva_semana DOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDIAZ\Downloads\Etapa productiva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDIAZ\Downloads\Etapa productiva\bitacorasADSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,9 +160,6 @@
     <t xml:space="preserve">4. OBSERVACIONES </t>
   </si>
   <si>
-    <t xml:space="preserve">Concepto empresa sobre el desempeño del aprendiz </t>
-  </si>
-  <si>
     <t>Instructor responsable</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>31/11/2018</t>
+  </si>
+  <si>
+    <t>Concepto empresa sobre el desempeño del aprendiz : Su desempeño sobresale y con rapidezn logra desenglosar los retos del framework.</t>
   </si>
 </sst>
 </file>
@@ -853,128 +853,123 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1007,21 +1002,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1031,96 +1011,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39:R39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1526,138 +1526,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="133"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="123"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="124" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="126"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="129"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="70"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="127" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="129"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="70"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="130" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="132"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="73"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,30 +1686,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1770,24 +1770,24 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
+      <c r="E10" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
       <c r="S10" s="30" t="s">
         <v>11</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>21</v>
       </c>
       <c r="U10" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V10" s="51">
         <v>2018</v>
@@ -1819,9 +1819,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
       <c r="S11" s="38"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -1835,26 +1835,26 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="109">
+      <c r="E12" s="101">
         <v>1006415366</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
+      <c r="L12" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
       <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="U12" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V12" s="51">
         <v>2018</v>
@@ -1901,38 +1901,38 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="104" t="s">
+      <c r="E14" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="53">
         <v>6</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="103" t="s">
+      <c r="Q14" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="104"/>
-      <c r="S14" s="105"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61"/>
       <c r="T14" s="51">
         <v>6</v>
       </c>
       <c r="U14" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V14" s="51">
         <v>2019</v>
@@ -1971,30 +1971,30 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
+      <c r="E16" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="84"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="116">
+      <c r="T16" s="85">
         <v>136211</v>
       </c>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,32 +2029,32 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="58">
+      <c r="E18" s="86">
         <v>3143377605</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="126"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2133,30 +2133,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2218,27 +2218,27 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
+      <c r="F25" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
       <c r="Q25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="115"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="108"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="78"/>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,35 +2272,35 @@
         <v>19</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="D27" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="M27" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="48" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="49"/>
-      <c r="S27" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
+      <c r="S27" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
       <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2334,33 +2334,33 @@
         <v>22</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="92"/>
+      <c r="L29" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="108"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="115"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="108"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="78"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,36 +2391,36 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="113" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="114"/>
+      <c r="C31" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="90"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
+      <c r="L31" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="135"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="137"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="81"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2473,30 +2473,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2526,151 +2526,151 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="139"/>
+      <c r="Q36" s="139"/>
+      <c r="R36" s="139"/>
+      <c r="S36" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="23"/>
+    </row>
+    <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="130"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="140"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="23"/>
+    </row>
+    <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="23"/>
-    </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37" s="83"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="23"/>
-    </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="73" t="s">
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="110">
+        <v>43425</v>
+      </c>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="R38" s="111"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="23"/>
+    </row>
+    <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="91">
-        <v>43425</v>
-      </c>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="R38" s="92"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="23"/>
-    </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="73" t="s">
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="91">
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="110">
         <v>43435</v>
       </c>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="91">
+      <c r="P39" s="111"/>
+      <c r="Q39" s="110">
         <v>43439</v>
       </c>
-      <c r="R39" s="92"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="95"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="114"/>
       <c r="W39" s="23"/>
     </row>
     <row r="40" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="95"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="114"/>
       <c r="W40" s="23"/>
     </row>
     <row r="41" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,30 +2699,30 @@
       <c r="W41" s="31"/>
     </row>
     <row r="42" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2752,29 +2752,29 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="57"/>
+      <c r="B44" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="120"/>
       <c r="W44" s="23"/>
     </row>
     <row r="45" spans="1:24" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2837,6 +2837,53 @@
     <row r="79" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B44:V44"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S36:V37"/>
+    <mergeCell ref="B42:W42"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="P10:R12"/>
+    <mergeCell ref="E10:O10"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="B22:W22"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="F25:P25"/>
+    <mergeCell ref="R25:V25"/>
     <mergeCell ref="B34:W34"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -2853,53 +2900,6 @@
     <mergeCell ref="R29:V29"/>
     <mergeCell ref="R31:V31"/>
     <mergeCell ref="E16:O16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="B22:W22"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="F25:P25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="P10:R12"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="S36:V37"/>
-    <mergeCell ref="B42:W42"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="B44:V44"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
   </mergeCells>
   <dataValidations xWindow="662" yWindow="599" count="3">
     <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N40">
@@ -2959,13 +2959,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2014</v>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2015</v>
@@ -2995,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -3006,7 +3006,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2017</v>
@@ -3017,7 +3017,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2018</v>
@@ -3028,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/Bitacora_Etapa_Productiva_semana DOS.xlsx
+++ b/Bitacora_Etapa_Productiva_semana DOS.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE  INFORMACIÓN</t>
-  </si>
-  <si>
-    <t>CEDULA</t>
   </si>
   <si>
     <t>GUSTAVO JIMENEZ</t>
@@ -284,7 +281,13 @@
     <t>31/11/2018</t>
   </si>
   <si>
-    <t>Concepto empresa sobre el desempeño del aprendiz : Su desempeño sobresale y con rapidezn logra desenglosar los retos del framework.</t>
+    <t>Concepto empresa sobre el desempeño del aprendiz : Su desempeño sobresale y con rapidez,  logra desenglosar los retos del framework.</t>
+  </si>
+  <si>
+    <t>Programming Backend</t>
+  </si>
+  <si>
+    <t>Tauramena/Casanare</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:V44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
@@ -2048,7 +2051,7 @@
       <c r="O18" s="92"/>
       <c r="P18" s="124"/>
       <c r="Q18" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R18" s="86"/>
       <c r="S18" s="86"/>
@@ -2219,7 +2222,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -2273,7 +2276,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="77"/>
@@ -2286,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N27" s="86"/>
       <c r="O27" s="86"/>
@@ -2296,7 +2299,7 @@
       </c>
       <c r="R27" s="49"/>
       <c r="S27" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T27" s="86"/>
       <c r="U27" s="86"/>
@@ -2335,7 +2338,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="77"/>
@@ -2347,7 +2350,7 @@
       </c>
       <c r="K29" s="92"/>
       <c r="L29" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M29" s="77"/>
       <c r="N29" s="77"/>
@@ -2356,7 +2359,9 @@
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="76"/>
+      <c r="R29" s="76" t="s">
+        <v>74</v>
+      </c>
       <c r="S29" s="77"/>
       <c r="T29" s="77"/>
       <c r="U29" s="77"/>
@@ -2392,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="77"/>
       <c r="E31" s="77"/>
@@ -2407,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="88"/>
       <c r="N31" s="88"/>
@@ -2527,7 +2532,7 @@
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="128"/>
       <c r="D36" s="128"/>
@@ -2587,13 +2592,13 @@
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="134"/>
       <c r="D38" s="134"/>
       <c r="E38" s="135"/>
       <c r="F38" s="115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="116"/>
       <c r="H38" s="116"/>
@@ -2608,7 +2613,7 @@
       </c>
       <c r="P38" s="111"/>
       <c r="Q38" s="110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R38" s="111"/>
       <c r="S38" s="112"/>
@@ -2619,13 +2624,13 @@
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="134"/>
       <c r="D39" s="134"/>
       <c r="E39" s="135"/>
       <c r="F39" s="115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="116"/>
       <c r="H39" s="116"/>
@@ -2753,7 +2758,7 @@
     </row>
     <row r="44" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="119"/>
       <c r="D44" s="119"/>
